--- a/TCC EXCEL FILES/TCC 2014.xlsx
+++ b/TCC EXCEL FILES/TCC 2014.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE51322-F1C1-4BAD-80CE-DB8C27D0B039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CEAB8A-1F21-4855-B083-60499AA8A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="1030">
   <si>
     <t>Judges Names</t>
   </si>
@@ -3107,6 +3107,9 @@
   </si>
   <si>
     <t>A.G</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -3483,15 +3486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:N302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3529,10 +3532,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3569,11 +3575,14 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3610,11 +3619,14 @@
       <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3651,11 +3663,14 @@
       <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3692,11 +3707,14 @@
       <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -3733,11 +3751,14 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -3774,11 +3795,14 @@
       <c r="L7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3815,11 +3839,14 @@
       <c r="L8" t="s">
         <v>23</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -3856,11 +3883,14 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -3897,11 +3927,14 @@
       <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -3938,11 +3971,14 @@
       <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -3979,11 +4015,14 @@
       <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -4020,11 +4059,14 @@
       <c r="L13" t="s">
         <v>32</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -4061,11 +4103,14 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4102,11 +4147,14 @@
       <c r="L15" t="s">
         <v>23</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -4143,11 +4191,14 @@
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -4184,11 +4235,14 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -4225,11 +4279,14 @@
       <c r="L18" t="s">
         <v>32</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -4266,11 +4323,14 @@
       <c r="L19" t="s">
         <v>32</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -4307,11 +4367,14 @@
       <c r="L20" t="s">
         <v>32</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -4348,11 +4411,14 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -4389,11 +4455,14 @@
       <c r="L22" t="s">
         <v>32</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -4430,11 +4499,14 @@
       <c r="L23" t="s">
         <v>32</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -4471,11 +4543,14 @@
       <c r="L24" t="s">
         <v>32</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -4512,11 +4587,14 @@
       <c r="L25" t="s">
         <v>32</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -4553,11 +4631,14 @@
       <c r="L26" t="s">
         <v>32</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -4594,11 +4675,14 @@
       <c r="L27" t="s">
         <v>32</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -4635,11 +4719,14 @@
       <c r="L28" t="s">
         <v>23</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -4676,11 +4763,14 @@
       <c r="L29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -4717,11 +4807,14 @@
       <c r="L30" t="s">
         <v>32</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -4758,11 +4851,14 @@
       <c r="L31" t="s">
         <v>32</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>161</v>
       </c>
@@ -4799,11 +4895,14 @@
       <c r="L32" t="s">
         <v>23</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4840,11 +4939,14 @@
       <c r="L33" t="s">
         <v>23</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -4881,11 +4983,14 @@
       <c r="L34" t="s">
         <v>32</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>186</v>
       </c>
@@ -4922,11 +5027,14 @@
       <c r="L35" t="s">
         <v>32</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -4963,11 +5071,14 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -5004,11 +5115,14 @@
       <c r="L37" t="s">
         <v>32</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -5045,11 +5159,14 @@
       <c r="L38" t="s">
         <v>32</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -5086,11 +5203,14 @@
       <c r="L39" t="s">
         <v>32</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -5127,11 +5247,14 @@
       <c r="L40" t="s">
         <v>32</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -5168,11 +5291,14 @@
       <c r="L41" t="s">
         <v>32</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -5209,11 +5335,14 @@
       <c r="L42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -5250,11 +5379,14 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>223</v>
       </c>
@@ -5291,11 +5423,14 @@
       <c r="L44" t="s">
         <v>32</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>229</v>
       </c>
@@ -5332,11 +5467,14 @@
       <c r="L45" t="s">
         <v>23</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>233</v>
       </c>
@@ -5373,11 +5511,14 @@
       <c r="L46" t="s">
         <v>32</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -5414,11 +5555,14 @@
       <c r="L47" t="s">
         <v>23</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -5455,11 +5599,14 @@
       <c r="L48" t="s">
         <v>32</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -5496,11 +5643,14 @@
       <c r="L49" t="s">
         <v>32</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -5537,11 +5687,14 @@
       <c r="L50" t="s">
         <v>32</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -5578,11 +5731,14 @@
       <c r="L51" t="s">
         <v>32</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -5619,11 +5775,14 @@
       <c r="L52" t="s">
         <v>32</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -5660,11 +5819,14 @@
       <c r="L53" t="s">
         <v>32</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -5701,11 +5863,14 @@
       <c r="L54" t="s">
         <v>23</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -5742,11 +5907,14 @@
       <c r="L55" t="s">
         <v>23</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>191</v>
       </c>
@@ -5783,11 +5951,14 @@
       <c r="L56" t="s">
         <v>23</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>271</v>
       </c>
@@ -5824,11 +5995,14 @@
       <c r="L57" t="s">
         <v>23</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -5865,11 +6039,14 @@
       <c r="L58" t="s">
         <v>32</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5906,11 +6083,14 @@
       <c r="L59" t="s">
         <v>32</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -5947,11 +6127,14 @@
       <c r="L60" t="s">
         <v>32</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -5988,11 +6171,14 @@
       <c r="L61" t="s">
         <v>32</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>233</v>
       </c>
@@ -6029,11 +6215,14 @@
       <c r="L62" t="s">
         <v>32</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -6070,11 +6259,14 @@
       <c r="L63" t="s">
         <v>23</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -6111,11 +6303,14 @@
       <c r="L64" t="s">
         <v>23</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -6152,11 +6347,14 @@
       <c r="L65" t="s">
         <v>23</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -6193,11 +6391,14 @@
       <c r="L66" t="s">
         <v>23</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>306</v>
       </c>
@@ -6234,11 +6435,14 @@
       <c r="L67" t="s">
         <v>23</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -6275,11 +6479,14 @@
       <c r="L68" t="s">
         <v>32</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>313</v>
       </c>
@@ -6316,11 +6523,14 @@
       <c r="L69" t="s">
         <v>32</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -6357,11 +6567,14 @@
       <c r="L70" t="s">
         <v>32</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -6398,11 +6611,14 @@
       <c r="L71" t="s">
         <v>23</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -6439,11 +6655,14 @@
       <c r="L72" t="s">
         <v>23</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -6480,11 +6699,14 @@
       <c r="L73" t="s">
         <v>32</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -6521,11 +6743,14 @@
       <c r="L74" t="s">
         <v>32</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -6562,11 +6787,14 @@
       <c r="L75" t="s">
         <v>32</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -6603,11 +6831,14 @@
       <c r="L76" t="s">
         <v>32</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -6644,11 +6875,14 @@
       <c r="L77" t="s">
         <v>23</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -6685,11 +6919,14 @@
       <c r="L78" t="s">
         <v>23</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -6726,11 +6963,14 @@
       <c r="L79" t="s">
         <v>32</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -6767,11 +7007,14 @@
       <c r="L80" t="s">
         <v>32</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -6808,11 +7051,14 @@
       <c r="L81" t="s">
         <v>32</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -6849,11 +7095,14 @@
       <c r="L82" t="s">
         <v>23</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>362</v>
       </c>
@@ -6890,11 +7139,14 @@
       <c r="L83" t="s">
         <v>23</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -6931,11 +7183,14 @@
       <c r="L84" t="s">
         <v>23</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>161</v>
       </c>
@@ -6972,11 +7227,14 @@
       <c r="L85" t="s">
         <v>23</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -7013,11 +7271,14 @@
       <c r="L86" t="s">
         <v>23</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -7054,11 +7315,14 @@
       <c r="L87" t="s">
         <v>32</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>112</v>
       </c>
@@ -7095,11 +7359,14 @@
       <c r="L88" t="s">
         <v>32</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>145</v>
       </c>
@@ -7136,11 +7403,14 @@
       <c r="L89" t="s">
         <v>32</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -7177,11 +7447,14 @@
       <c r="L90" t="s">
         <v>32</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>145</v>
       </c>
@@ -7218,11 +7491,14 @@
       <c r="L91" t="s">
         <v>32</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -7259,11 +7535,14 @@
       <c r="L92" t="s">
         <v>32</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>145</v>
       </c>
@@ -7300,11 +7579,14 @@
       <c r="L93" t="s">
         <v>32</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -7341,11 +7623,14 @@
       <c r="L94" t="s">
         <v>23</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -7382,11 +7667,14 @@
       <c r="L95" t="s">
         <v>32</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>169</v>
       </c>
@@ -7423,11 +7711,14 @@
       <c r="L96" t="s">
         <v>32</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>258</v>
       </c>
@@ -7464,11 +7755,14 @@
       <c r="L97" t="s">
         <v>32</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>72</v>
       </c>
@@ -7505,11 +7799,14 @@
       <c r="L98" t="s">
         <v>23</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>72</v>
       </c>
@@ -7546,11 +7843,14 @@
       <c r="L99" t="s">
         <v>23</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>419</v>
       </c>
@@ -7587,11 +7887,14 @@
       <c r="L100" t="s">
         <v>32</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -7628,11 +7931,14 @@
       <c r="L101" t="s">
         <v>32</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -7669,11 +7975,14 @@
       <c r="L102" t="s">
         <v>23</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>429</v>
       </c>
@@ -7710,11 +8019,14 @@
       <c r="L103" t="s">
         <v>23</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -7751,11 +8063,14 @@
       <c r="L104" t="s">
         <v>32</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>48</v>
       </c>
@@ -7792,11 +8107,14 @@
       <c r="L105" t="s">
         <v>23</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>258</v>
       </c>
@@ -7833,11 +8151,14 @@
       <c r="L106" t="s">
         <v>32</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>112</v>
       </c>
@@ -7874,11 +8195,14 @@
       <c r="L107" t="s">
         <v>32</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>444</v>
       </c>
@@ -7915,11 +8239,14 @@
       <c r="L108" t="s">
         <v>23</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>186</v>
       </c>
@@ -7956,11 +8283,14 @@
       <c r="L109" t="s">
         <v>32</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -7997,11 +8327,14 @@
       <c r="L110" t="s">
         <v>32</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -8038,11 +8371,14 @@
       <c r="L111" t="s">
         <v>32</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -8079,11 +8415,14 @@
       <c r="L112" t="s">
         <v>23</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>186</v>
       </c>
@@ -8120,11 +8459,14 @@
       <c r="L113" t="s">
         <v>32</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -8161,11 +8503,14 @@
       <c r="L114" t="s">
         <v>23</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -8202,11 +8547,14 @@
       <c r="L115" t="s">
         <v>23</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>34</v>
       </c>
@@ -8243,11 +8591,14 @@
       <c r="L116" t="s">
         <v>23</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -8284,11 +8635,14 @@
       <c r="L117" t="s">
         <v>32</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>444</v>
       </c>
@@ -8325,11 +8679,14 @@
       <c r="L118" t="s">
         <v>23</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>444</v>
       </c>
@@ -8366,11 +8723,14 @@
       <c r="L119" t="s">
         <v>23</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -8407,11 +8767,14 @@
       <c r="L120" t="s">
         <v>32</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>444</v>
       </c>
@@ -8448,11 +8811,14 @@
       <c r="L121" t="s">
         <v>23</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>191</v>
       </c>
@@ -8489,11 +8855,14 @@
       <c r="L122" t="s">
         <v>23</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>258</v>
       </c>
@@ -8530,11 +8899,14 @@
       <c r="L123" t="s">
         <v>32</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -8571,11 +8943,14 @@
       <c r="L124" t="s">
         <v>32</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -8612,11 +8987,14 @@
       <c r="L125" t="s">
         <v>23</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -8653,11 +9031,14 @@
       <c r="L126" t="s">
         <v>32</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -8694,11 +9075,14 @@
       <c r="L127" t="s">
         <v>32</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -8735,11 +9119,14 @@
       <c r="L128" t="s">
         <v>23</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>508</v>
       </c>
@@ -8776,11 +9163,14 @@
       <c r="L129" t="s">
         <v>32</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>161</v>
       </c>
@@ -8817,11 +9207,14 @@
       <c r="L130" t="s">
         <v>513</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -8858,11 +9251,14 @@
       <c r="L131" t="s">
         <v>32</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -8899,11 +9295,14 @@
       <c r="L132" t="s">
         <v>32</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>508</v>
       </c>
@@ -8940,11 +9339,14 @@
       <c r="L133" t="s">
         <v>32</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>186</v>
       </c>
@@ -8981,11 +9383,14 @@
       <c r="L134" t="s">
         <v>32</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>313</v>
       </c>
@@ -9022,11 +9427,14 @@
       <c r="L135" t="s">
         <v>32</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>529</v>
       </c>
@@ -9063,11 +9471,14 @@
       <c r="L136" t="s">
         <v>32</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>48</v>
       </c>
@@ -9104,11 +9515,14 @@
       <c r="L137" t="s">
         <v>23</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>98</v>
       </c>
@@ -9145,11 +9559,14 @@
       <c r="L138" t="s">
         <v>23</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>72</v>
       </c>
@@ -9186,11 +9603,14 @@
       <c r="L139" t="s">
         <v>23</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>233</v>
       </c>
@@ -9227,11 +9647,14 @@
       <c r="L140" t="s">
         <v>32</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -9268,11 +9691,14 @@
       <c r="L141" t="s">
         <v>32</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -9309,11 +9735,14 @@
       <c r="L142" t="s">
         <v>32</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>554</v>
       </c>
@@ -9350,11 +9779,14 @@
       <c r="L143" t="s">
         <v>23</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>186</v>
       </c>
@@ -9391,11 +9823,14 @@
       <c r="L144" t="s">
         <v>32</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>34</v>
       </c>
@@ -9432,11 +9867,14 @@
       <c r="L145" t="s">
         <v>32</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>306</v>
       </c>
@@ -9473,11 +9911,14 @@
       <c r="L146" t="s">
         <v>23</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>48</v>
       </c>
@@ -9514,11 +9955,14 @@
       <c r="L147" t="s">
         <v>23</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>138</v>
       </c>
@@ -9555,11 +9999,14 @@
       <c r="L148" t="s">
         <v>32</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>223</v>
       </c>
@@ -9596,11 +10043,14 @@
       <c r="L149" t="s">
         <v>32</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>258</v>
       </c>
@@ -9637,11 +10087,14 @@
       <c r="L150" t="s">
         <v>32</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>112</v>
       </c>
@@ -9678,11 +10131,14 @@
       <c r="L151" t="s">
         <v>32</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>191</v>
       </c>
@@ -9719,11 +10175,14 @@
       <c r="L152" t="s">
         <v>23</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>258</v>
       </c>
@@ -9760,11 +10219,14 @@
       <c r="L153" t="s">
         <v>32</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>72</v>
       </c>
@@ -9801,11 +10263,14 @@
       <c r="L154" t="s">
         <v>23</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>223</v>
       </c>
@@ -9842,11 +10307,14 @@
       <c r="L155" t="s">
         <v>32</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -9883,11 +10351,14 @@
       <c r="L156" t="s">
         <v>32</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>223</v>
       </c>
@@ -9924,11 +10395,14 @@
       <c r="L157" t="s">
         <v>32</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>233</v>
       </c>
@@ -9965,11 +10439,14 @@
       <c r="L158" t="s">
         <v>32</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>169</v>
       </c>
@@ -10006,11 +10483,14 @@
       <c r="L159" t="s">
         <v>32</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>48</v>
       </c>
@@ -10047,11 +10527,14 @@
       <c r="L160" t="s">
         <v>23</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -10088,11 +10571,14 @@
       <c r="L161" t="s">
         <v>32</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -10129,11 +10615,14 @@
       <c r="L162" t="s">
         <v>23</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>233</v>
       </c>
@@ -10170,11 +10659,14 @@
       <c r="L163" t="s">
         <v>32</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>169</v>
       </c>
@@ -10211,11 +10703,14 @@
       <c r="L164" t="s">
         <v>32</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -10252,11 +10747,14 @@
       <c r="L165" t="s">
         <v>32</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>145</v>
       </c>
@@ -10293,11 +10791,14 @@
       <c r="L166" t="s">
         <v>32</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>72</v>
       </c>
@@ -10334,11 +10835,14 @@
       <c r="L167" t="s">
         <v>23</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>72</v>
       </c>
@@ -10375,11 +10879,14 @@
       <c r="L168" t="s">
         <v>23</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -10416,11 +10923,14 @@
       <c r="L169" t="s">
         <v>23</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -10457,11 +10967,14 @@
       <c r="L170" t="s">
         <v>32</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>223</v>
       </c>
@@ -10498,11 +11011,14 @@
       <c r="L171" t="s">
         <v>32</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>233</v>
       </c>
@@ -10539,11 +11055,14 @@
       <c r="L172" t="s">
         <v>32</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>169</v>
       </c>
@@ -10580,11 +11099,14 @@
       <c r="L173" t="s">
         <v>32</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>223</v>
       </c>
@@ -10621,11 +11143,14 @@
       <c r="L174" t="s">
         <v>32</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>223</v>
       </c>
@@ -10662,11 +11187,14 @@
       <c r="L175" t="s">
         <v>32</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -10703,11 +11231,14 @@
       <c r="L176" t="s">
         <v>32</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>529</v>
       </c>
@@ -10744,11 +11275,14 @@
       <c r="L177" t="s">
         <v>32</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>98</v>
       </c>
@@ -10785,11 +11319,14 @@
       <c r="L178" t="s">
         <v>23</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>169</v>
       </c>
@@ -10826,11 +11363,14 @@
       <c r="L179" t="s">
         <v>32</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>117</v>
       </c>
@@ -10867,11 +11407,14 @@
       <c r="L180" t="s">
         <v>32</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>83</v>
       </c>
@@ -10908,11 +11451,14 @@
       <c r="L181" t="s">
         <v>32</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>25</v>
       </c>
@@ -10949,11 +11495,14 @@
       <c r="L182" t="s">
         <v>32</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>529</v>
       </c>
@@ -10990,11 +11539,14 @@
       <c r="L183" t="s">
         <v>32</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>112</v>
       </c>
@@ -11031,11 +11583,14 @@
       <c r="L184" t="s">
         <v>32</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>112</v>
       </c>
@@ -11072,11 +11627,14 @@
       <c r="L185" t="s">
         <v>32</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>169</v>
       </c>
@@ -11113,11 +11671,14 @@
       <c r="L186" t="s">
         <v>32</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>233</v>
       </c>
@@ -11154,11 +11715,14 @@
       <c r="L187" t="s">
         <v>32</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>98</v>
       </c>
@@ -11195,11 +11759,14 @@
       <c r="L188" t="s">
         <v>23</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>72</v>
       </c>
@@ -11236,11 +11803,14 @@
       <c r="L189" t="s">
         <v>23</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>161</v>
       </c>
@@ -11277,11 +11847,14 @@
       <c r="L190" t="s">
         <v>23</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>698</v>
       </c>
@@ -11318,11 +11891,14 @@
       <c r="L191" t="s">
         <v>32</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -11359,11 +11935,14 @@
       <c r="L192" t="s">
         <v>23</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>67</v>
       </c>
@@ -11400,11 +11979,14 @@
       <c r="L193" t="s">
         <v>23</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>271</v>
       </c>
@@ -11441,11 +12023,14 @@
       <c r="L194" t="s">
         <v>23</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>112</v>
       </c>
@@ -11482,11 +12067,14 @@
       <c r="L195" t="s">
         <v>32</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>223</v>
       </c>
@@ -11523,11 +12111,14 @@
       <c r="L196" t="s">
         <v>32</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -11564,11 +12155,14 @@
       <c r="L197" t="s">
         <v>23</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>724</v>
       </c>
@@ -11605,11 +12199,14 @@
       <c r="L198" t="s">
         <v>32</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>169</v>
       </c>
@@ -11646,11 +12243,14 @@
       <c r="L199" t="s">
         <v>32</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>39</v>
       </c>
@@ -11687,11 +12287,14 @@
       <c r="L200" t="s">
         <v>23</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>161</v>
       </c>
@@ -11728,11 +12331,14 @@
       <c r="L201" t="s">
         <v>23</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>306</v>
       </c>
@@ -11769,11 +12375,14 @@
       <c r="L202" t="s">
         <v>23</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>145</v>
       </c>
@@ -11810,11 +12419,14 @@
       <c r="L203" t="s">
         <v>32</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>233</v>
       </c>
@@ -11851,11 +12463,14 @@
       <c r="L204" t="s">
         <v>32</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>698</v>
       </c>
@@ -11892,11 +12507,14 @@
       <c r="L205" t="s">
         <v>32</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>161</v>
       </c>
@@ -11933,11 +12551,14 @@
       <c r="L206" t="s">
         <v>23</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>169</v>
       </c>
@@ -11974,11 +12595,14 @@
       <c r="L207" t="s">
         <v>32</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>72</v>
       </c>
@@ -12015,11 +12639,14 @@
       <c r="L208" t="s">
         <v>23</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>223</v>
       </c>
@@ -12056,11 +12683,14 @@
       <c r="L209" t="s">
         <v>32</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -12097,11 +12727,14 @@
       <c r="L210" t="s">
         <v>32</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>25</v>
       </c>
@@ -12138,11 +12771,14 @@
       <c r="L211" t="s">
         <v>32</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>25</v>
       </c>
@@ -12179,11 +12815,14 @@
       <c r="L212" t="s">
         <v>32</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>25</v>
       </c>
@@ -12220,11 +12859,14 @@
       <c r="L213" t="s">
         <v>32</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>25</v>
       </c>
@@ -12261,11 +12903,14 @@
       <c r="L214" t="s">
         <v>32</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>25</v>
       </c>
@@ -12302,11 +12947,14 @@
       <c r="L215" t="s">
         <v>32</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>25</v>
       </c>
@@ -12343,11 +12991,14 @@
       <c r="L216" t="s">
         <v>32</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>25</v>
       </c>
@@ -12384,11 +13035,14 @@
       <c r="L217" t="s">
         <v>32</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>25</v>
       </c>
@@ -12425,11 +13079,14 @@
       <c r="L218" t="s">
         <v>32</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>233</v>
       </c>
@@ -12466,11 +13123,14 @@
       <c r="L219" t="s">
         <v>32</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>161</v>
       </c>
@@ -12507,11 +13167,14 @@
       <c r="L220" t="s">
         <v>23</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>25</v>
       </c>
@@ -12548,11 +13211,14 @@
       <c r="L221" t="s">
         <v>32</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>258</v>
       </c>
@@ -12589,11 +13255,14 @@
       <c r="L222" t="s">
         <v>32</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>72</v>
       </c>
@@ -12630,11 +13299,14 @@
       <c r="L223" t="s">
         <v>23</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>169</v>
       </c>
@@ -12671,11 +13343,14 @@
       <c r="L224" t="s">
         <v>32</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>145</v>
       </c>
@@ -12712,11 +13387,14 @@
       <c r="L225" t="s">
         <v>32</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>804</v>
       </c>
@@ -12753,11 +13431,14 @@
       <c r="L226" t="s">
         <v>32</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>529</v>
       </c>
@@ -12794,11 +13475,14 @@
       <c r="L227" t="s">
         <v>32</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>39</v>
       </c>
@@ -12835,11 +13519,14 @@
       <c r="L228" t="s">
         <v>23</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>169</v>
       </c>
@@ -12876,11 +13563,14 @@
       <c r="L229" t="s">
         <v>32</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -12917,11 +13607,14 @@
       <c r="L230" t="s">
         <v>32</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>92</v>
       </c>
@@ -12958,11 +13651,14 @@
       <c r="L231" t="s">
         <v>23</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>698</v>
       </c>
@@ -12999,11 +13695,14 @@
       <c r="L232" t="s">
         <v>32</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>804</v>
       </c>
@@ -13040,11 +13739,14 @@
       <c r="L233" t="s">
         <v>32</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>203</v>
       </c>
@@ -13081,11 +13783,14 @@
       <c r="L234" t="s">
         <v>32</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -13122,11 +13827,14 @@
       <c r="L235" t="s">
         <v>32</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -13163,11 +13871,14 @@
       <c r="L236" t="s">
         <v>32</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>25</v>
       </c>
@@ -13204,11 +13915,14 @@
       <c r="L237" t="s">
         <v>32</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>186</v>
       </c>
@@ -13245,11 +13959,14 @@
       <c r="L238" t="s">
         <v>32</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>112</v>
       </c>
@@ -13286,11 +14003,14 @@
       <c r="L239" t="s">
         <v>32</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>191</v>
       </c>
@@ -13327,11 +14047,14 @@
       <c r="L240" t="s">
         <v>23</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>98</v>
       </c>
@@ -13368,11 +14091,14 @@
       <c r="L241" t="s">
         <v>23</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>48</v>
       </c>
@@ -13409,11 +14135,14 @@
       <c r="L242" t="s">
         <v>23</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>39</v>
       </c>
@@ -13450,11 +14179,14 @@
       <c r="L243" t="s">
         <v>23</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>233</v>
       </c>
@@ -13491,11 +14223,14 @@
       <c r="L244" t="s">
         <v>32</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>169</v>
       </c>
@@ -13532,11 +14267,14 @@
       <c r="L245" t="s">
         <v>32</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>186</v>
       </c>
@@ -13573,11 +14311,14 @@
       <c r="L246" t="s">
         <v>32</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>145</v>
       </c>
@@ -13614,11 +14355,14 @@
       <c r="L247" t="s">
         <v>32</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>67</v>
       </c>
@@ -13655,11 +14399,14 @@
       <c r="L248" t="s">
         <v>23</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>72</v>
       </c>
@@ -13696,11 +14443,14 @@
       <c r="L249" t="s">
         <v>23</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>138</v>
       </c>
@@ -13737,11 +14487,14 @@
       <c r="L250" t="s">
         <v>32</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>313</v>
       </c>
@@ -13778,11 +14531,14 @@
       <c r="L251" t="s">
         <v>32</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>138</v>
       </c>
@@ -13819,11 +14575,14 @@
       <c r="L252" t="s">
         <v>32</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>117</v>
       </c>
@@ -13860,11 +14619,14 @@
       <c r="L253" t="s">
         <v>32</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>145</v>
       </c>
@@ -13901,11 +14663,14 @@
       <c r="L254" t="s">
         <v>32</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>145</v>
       </c>
@@ -13942,11 +14707,14 @@
       <c r="L255" t="s">
         <v>32</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>72</v>
       </c>
@@ -13983,11 +14751,14 @@
       <c r="L256" t="s">
         <v>23</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>258</v>
       </c>
@@ -14024,11 +14795,14 @@
       <c r="L257" t="s">
         <v>32</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257">
+        <v>1</v>
+      </c>
+      <c r="N257" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -14065,11 +14839,14 @@
       <c r="L258" t="s">
         <v>32</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>161</v>
       </c>
@@ -14106,11 +14883,14 @@
       <c r="L259" t="s">
         <v>23</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>233</v>
       </c>
@@ -14147,11 +14927,14 @@
       <c r="L260" t="s">
         <v>32</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>233</v>
       </c>
@@ -14188,11 +14971,14 @@
       <c r="L261" t="s">
         <v>32</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>913</v>
       </c>
@@ -14229,11 +15015,14 @@
       <c r="L262" t="s">
         <v>32</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>223</v>
       </c>
@@ -14270,11 +15059,14 @@
       <c r="L263" t="s">
         <v>32</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>83</v>
       </c>
@@ -14311,11 +15103,14 @@
       <c r="L264" t="s">
         <v>32</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>191</v>
       </c>
@@ -14352,11 +15147,14 @@
       <c r="L265" t="s">
         <v>23</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>161</v>
       </c>
@@ -14393,11 +15191,14 @@
       <c r="L266" t="s">
         <v>23</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>98</v>
       </c>
@@ -14434,11 +15235,14 @@
       <c r="L267" t="s">
         <v>23</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M267">
+        <v>1</v>
+      </c>
+      <c r="N267" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>138</v>
       </c>
@@ -14475,11 +15279,14 @@
       <c r="L268" t="s">
         <v>32</v>
       </c>
-      <c r="M268" t="s">
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>161</v>
       </c>
@@ -14516,11 +15323,14 @@
       <c r="L269" t="s">
         <v>23</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>138</v>
       </c>
@@ -14557,11 +15367,14 @@
       <c r="L270" t="s">
         <v>32</v>
       </c>
-      <c r="M270" t="s">
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>223</v>
       </c>
@@ -14598,11 +15411,14 @@
       <c r="L271" t="s">
         <v>32</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>306</v>
       </c>
@@ -14639,11 +15455,14 @@
       <c r="L272" t="s">
         <v>23</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>161</v>
       </c>
@@ -14680,11 +15499,14 @@
       <c r="L273" t="s">
         <v>23</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>145</v>
       </c>
@@ -14721,11 +15543,14 @@
       <c r="L274" t="s">
         <v>32</v>
       </c>
-      <c r="M274" t="s">
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>112</v>
       </c>
@@ -14762,11 +15587,14 @@
       <c r="L275" t="s">
         <v>32</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>39</v>
       </c>
@@ -14803,11 +15631,14 @@
       <c r="L276" t="s">
         <v>23</v>
       </c>
-      <c r="M276" t="s">
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>25</v>
       </c>
@@ -14844,11 +15675,14 @@
       <c r="L277" t="s">
         <v>32</v>
       </c>
-      <c r="M277" t="s">
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>25</v>
       </c>
@@ -14885,11 +15719,14 @@
       <c r="L278" t="s">
         <v>32</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>258</v>
       </c>
@@ -14926,11 +15763,14 @@
       <c r="L279" t="s">
         <v>32</v>
       </c>
-      <c r="M279" t="s">
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>48</v>
       </c>
@@ -14967,11 +15807,14 @@
       <c r="L280" t="s">
         <v>23</v>
       </c>
-      <c r="M280" t="s">
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>186</v>
       </c>
@@ -15008,11 +15851,14 @@
       <c r="L281" t="s">
         <v>32</v>
       </c>
-      <c r="M281" t="s">
+      <c r="M281">
+        <v>1</v>
+      </c>
+      <c r="N281" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>233</v>
       </c>
@@ -15049,11 +15895,14 @@
       <c r="L282" t="s">
         <v>32</v>
       </c>
-      <c r="M282" t="s">
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>25</v>
       </c>
@@ -15090,11 +15939,14 @@
       <c r="L283" t="s">
         <v>32</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>25</v>
       </c>
@@ -15131,11 +15983,14 @@
       <c r="L284" t="s">
         <v>32</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>161</v>
       </c>
@@ -15172,11 +16027,14 @@
       <c r="L285" t="s">
         <v>23</v>
       </c>
-      <c r="M285" t="s">
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>145</v>
       </c>
@@ -15213,11 +16071,14 @@
       <c r="L286" t="s">
         <v>32</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>203</v>
       </c>
@@ -15254,11 +16115,14 @@
       <c r="L287" t="s">
         <v>32</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>72</v>
       </c>
@@ -15295,11 +16159,14 @@
       <c r="L288" t="s">
         <v>23</v>
       </c>
-      <c r="M288" t="s">
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>152</v>
       </c>
@@ -15336,11 +16203,14 @@
       <c r="L289" t="s">
         <v>32</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="N289" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>92</v>
       </c>
@@ -15377,11 +16247,14 @@
       <c r="L290" t="s">
         <v>23</v>
       </c>
-      <c r="M290" t="s">
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>161</v>
       </c>
@@ -15418,11 +16291,14 @@
       <c r="L291" t="s">
         <v>23</v>
       </c>
-      <c r="M291" t="s">
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>138</v>
       </c>
@@ -15459,11 +16335,14 @@
       <c r="L292" t="s">
         <v>32</v>
       </c>
-      <c r="M292" t="s">
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>98</v>
       </c>
@@ -15500,11 +16379,14 @@
       <c r="L293" t="s">
         <v>23</v>
       </c>
-      <c r="M293" t="s">
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>117</v>
       </c>
@@ -15541,11 +16423,14 @@
       <c r="L294" t="s">
         <v>32</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>67</v>
       </c>
@@ -15582,11 +16467,14 @@
       <c r="L295" t="s">
         <v>23</v>
       </c>
-      <c r="M295" t="s">
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>67</v>
       </c>
@@ -15623,11 +16511,14 @@
       <c r="L296" t="s">
         <v>23</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>39</v>
       </c>
@@ -15664,11 +16555,14 @@
       <c r="L297" t="s">
         <v>23</v>
       </c>
-      <c r="M297" t="s">
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>39</v>
       </c>
@@ -15705,11 +16599,14 @@
       <c r="L298" t="s">
         <v>23</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>223</v>
       </c>
@@ -15746,11 +16643,14 @@
       <c r="L299" t="s">
         <v>32</v>
       </c>
-      <c r="M299" t="s">
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>92</v>
       </c>
@@ -15787,11 +16687,14 @@
       <c r="L300" t="s">
         <v>23</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>429</v>
       </c>
@@ -15828,11 +16731,14 @@
       <c r="L301" t="s">
         <v>23</v>
       </c>
-      <c r="M301" t="s">
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>169</v>
       </c>
@@ -15869,14 +16775,17 @@
       <c r="L302" t="s">
         <v>32</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302" t="s">
         <v>1026</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M3 A5:M302 A4:E4 H4 K4:M4" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:E4 H4 N1:N302 K4:L4 A5:L302 A1:L3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>